--- a/Important docs/Boss links.xlsx
+++ b/Important docs/Boss links.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>kkljl</t>
   </si>
@@ -28,6 +28,12 @@
   </si>
   <si>
     <t>;l;'</t>
+  </si>
+  <si>
+    <t>sfsdf</t>
+  </si>
+  <si>
+    <t>sdfsdf</t>
   </si>
 </sst>
 </file>
@@ -359,32 +365,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="F11:P24"/>
+  <dimension ref="B11:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="11" spans="6:7">
+    <row r="11" spans="2:7">
       <c r="F11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="6:7">
+    <row r="13" spans="2:7">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
       <c r="G14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="11:16">
+    <row r="17" spans="6:16">
       <c r="K17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="11:16">
+    <row r="18" spans="6:16">
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="6:16">
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="6:16">
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="6:16">
+      <c r="I22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="6:16">
       <c r="P24" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="6:16">
+      <c r="G28" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
